--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_oct_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_oct_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>SlNo</t>
   </si>
@@ -62,6 +62,15 @@
   </si>
   <si>
     <t>jbpm revision</t>
+  </si>
+  <si>
+    <t>meeting/learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meeting/learning microservices </t>
+  </si>
+  <si>
+    <t>revision html/css</t>
   </si>
 </sst>
 </file>
@@ -599,7 +608,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -610,7 +619,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -662,7 +671,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -713,7 +722,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -737,19 +746,35 @@
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="3"/>
+      <c r="C9" s="10">
+        <v>44477</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="3"/>
+      <c r="C10" s="10">
+        <v>44480</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="2">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_oct_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_oct_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>SlNo</t>
   </si>
@@ -71,6 +71,27 @@
   </si>
   <si>
     <t>revision html/css</t>
+  </si>
+  <si>
+    <t>jbpm session/jbpm practice</t>
+  </si>
+  <si>
+    <t>jbpm revision,session</t>
+  </si>
+  <si>
+    <t>jbpm clarifcation session/practice</t>
+  </si>
+  <si>
+    <t>java oops</t>
+  </si>
+  <si>
+    <t>oops revision</t>
+  </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
+    <t>spring revision</t>
   </si>
 </sst>
 </file>
@@ -608,7 +629,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -619,7 +640,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -780,37 +801,69 @@
       <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="3"/>
+      <c r="C11" s="10">
+        <v>44481</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="2">
         <v>9</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="3"/>
+      <c r="C12" s="10">
+        <v>44482</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="2">
         <v>10</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="3"/>
+      <c r="C13" s="10">
+        <v>44483</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="2">
         <v>11</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="3"/>
+      <c r="C14" s="10">
+        <v>44484</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="2">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_oct_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_oct_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>SlNo</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>spring revision</t>
+  </si>
+  <si>
+    <t>java revision with team/office visit</t>
   </si>
 </sst>
 </file>
@@ -629,7 +632,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -640,7 +643,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -869,10 +872,18 @@
       <c r="B15" s="2">
         <v>12</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="3"/>
+      <c r="C15" s="10">
+        <v>44487</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="2">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_oct_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_oct_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>SlNo</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>java revision with team/office visit</t>
+  </si>
+  <si>
+    <t>java revision with team</t>
   </si>
 </sst>
 </file>
@@ -632,7 +635,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -643,7 +646,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -889,10 +892,18 @@
       <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="3"/>
+      <c r="C16" s="10">
+        <v>44488</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="2">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_oct_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_oct_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>SlNo</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>java revision with team</t>
+  </si>
+  <si>
+    <t>revision spring topics</t>
   </si>
 </sst>
 </file>
@@ -635,7 +638,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -646,7 +649,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -909,10 +912,18 @@
       <c r="B17" s="2">
         <v>14</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="3"/>
+      <c r="C17" s="10">
+        <v>44489</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="2">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_oct_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_oct_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>SlNo</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>revision spring topics</t>
+  </si>
+  <si>
+    <t>infosys</t>
+  </si>
+  <si>
+    <t>infosys login process/reaching out helpdesk</t>
   </si>
 </sst>
 </file>
@@ -638,7 +644,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -649,7 +655,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -929,10 +935,18 @@
       <c r="B18" s="2">
         <v>15</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="3"/>
+      <c r="C18" s="10">
+        <v>44490</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="2">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_oct_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_oct_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>SlNo</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>infosys login process/reaching out helpdesk</t>
+  </si>
+  <si>
+    <t>MFA approval process/login</t>
+  </si>
+  <si>
+    <t>inheritance</t>
   </si>
 </sst>
 </file>
@@ -644,7 +650,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -655,7 +661,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -952,19 +958,35 @@
       <c r="B19" s="2">
         <v>16</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="3"/>
+      <c r="C19" s="10">
+        <v>44494</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="2">
         <v>17</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="3"/>
+      <c r="C20" s="10">
+        <v>44495</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="2">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_oct_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_oct_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>SlNo</t>
   </si>
@@ -112,7 +112,13 @@
     <t>MFA approval process/login</t>
   </si>
   <si>
-    <t>inheritance</t>
+    <t>inheritance/infosys login</t>
+  </si>
+  <si>
+    <t>SAQquiz</t>
+  </si>
+  <si>
+    <t>SAQ quiz</t>
   </si>
 </sst>
 </file>
@@ -650,7 +656,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -661,7 +667,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -992,28 +998,52 @@
       <c r="B21" s="2">
         <v>18</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="3"/>
+      <c r="C21" s="10">
+        <v>44496</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="2">
         <v>19</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="3"/>
+      <c r="C22" s="10">
+        <v>44497</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="2">
         <v>20</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="3"/>
+      <c r="C23" s="10">
+        <v>44498</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="2">
